--- a/wiki/media/de/modul/m288/learningunits/lu00/m288_lb2_bewertungraster_2025he_me28.xlsx
+++ b/wiki/media/de/modul/m288/learningunits/lu00/m288_lb2_bewertungraster_2025he_me28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bzzch-my.sharepoint.com/personal/volkan_demir_bzz_ch/Documents/--- Latest Version ---/M288 - 2025HE/LU00_Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F0E6DCC-AB6E-4386-BC95-EEACC7AF54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{1F0E6DCC-AB6E-4386-BC95-EEACC7AF54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{521E3559-D545-4C91-9C33-07BDF895EBD5}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63375" yWindow="0" windowWidth="22335" windowHeight="17850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorlage" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Komprimierte Video-Data</t>
   </si>
   <si>
-    <t>15 +/- 1 Minute</t>
-  </si>
-  <si>
     <t>720 bis 1080 Pixel</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t xml:space="preserve">Ab dem 2. Versuch </t>
   </si>
   <si>
-    <t>Pro abweichender angefangener Minute</t>
-  </si>
-  <si>
     <t>Es wird mindestens eine For-Loop verwendet</t>
   </si>
   <si>
@@ -384,9 +378,6 @@
     <t>Story</t>
   </si>
   <si>
-    <t>Story unterstütz das Verständnis des Fachinhaltes.</t>
-  </si>
-  <si>
     <t>Es wird das korrekte Fachvokabular verwendet.</t>
   </si>
   <si>
@@ -405,9 +396,6 @@
     <t>Es gibt eine Aha-Effekt, bzw. der Twist wird am Ende aufgelöst oder bewusst nicht aufgelöst.</t>
   </si>
   <si>
-    <t>Die Story ist emotional ansprechend berührend oder erheiternd.</t>
-  </si>
-  <si>
     <t>Die Kameraführung ist abwechslungsreich</t>
   </si>
   <si>
@@ -433,6 +421,18 @@
   </si>
   <si>
     <t>3-4 Kriterien erfüllt: 0.45 Noten</t>
+  </si>
+  <si>
+    <t>Pro angefangener abweichender Minute</t>
+  </si>
+  <si>
+    <t>15 +/- 1 Minute (14-16 Minuten)</t>
+  </si>
+  <si>
+    <t>Die Story/das Tutorial ist emotional ansprechend berührend oder erheiternd.</t>
+  </si>
+  <si>
+    <t>Die Story bzw. das Tutorial  unterstütz das Verständnis des Fachinhaltes, d.h. die Fachinhalte wurden mit der realen Welt (Beispiel) verknüpft.</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1524,7 +1524,7 @@
     <xf numFmtId="2" fontId="12" fillId="5" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="5" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1584,28 +1584,28 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1673,9 +1673,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2042,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2109,7 +2106,7 @@
         <f>SUM(K6:K129)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="140"/>
+      <c r="L2" s="139"/>
     </row>
     <row r="3" spans="1:12" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A3" s="92"/>
@@ -2129,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="54" t="s">
         <v>12</v>
@@ -2138,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>3</v>
@@ -2169,7 +2166,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="51" t="s">
         <v>3</v>
@@ -2199,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>14</v>
@@ -2228,7 +2225,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -2245,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2258,11 +2255,11 @@
       <c r="L9" s="72"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A10" s="119">
+      <c r="A10" s="118">
         <f>A8</f>
         <v>1</v>
       </c>
-      <c r="B10" s="120">
+      <c r="B10" s="119">
         <f>B8+1</f>
         <v>3</v>
       </c>
@@ -2270,7 +2267,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2281,19 +2278,19 @@
       <c r="L10" s="74"/>
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A11" s="119"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="59"/>
       <c r="G11" s="59"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122"/>
     </row>
     <row r="12" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="102"/>
@@ -2302,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2324,10 +2321,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2338,68 +2335,68 @@
       <c r="L13" s="66"/>
     </row>
     <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A14" s="124"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="126" t="s">
+      <c r="A14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="127"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128">
+        <v>-0.25</v>
+      </c>
+      <c r="I14" s="120"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="122"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="127"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128">
+        <v>-0.25</v>
+      </c>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A16" s="123"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129">
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128">
         <v>-0.25</v>
       </c>
-      <c r="I14" s="121"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="123"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A15" s="124"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129">
-        <v>-0.25</v>
-      </c>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A16" s="124"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129">
-        <v>-0.25</v>
-      </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
     </row>
     <row r="17" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="124"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129">
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="127"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128">
         <v>-0.25</v>
       </c>
       <c r="I17" s="70"/>
@@ -2420,7 +2417,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -2437,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -2459,10 +2456,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="85"/>
@@ -2473,74 +2470,74 @@
       <c r="L20" s="66"/>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A21" s="124"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="126" t="s">
+      <c r="A21" s="123"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="127" t="s">
+      <c r="D21" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="127"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128">
+        <v>-0.25</v>
+      </c>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="122"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A22" s="123"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="127"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128">
+        <v>-0.25</v>
+      </c>
+      <c r="I22" s="120"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="122"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A23" s="123"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129">
+      <c r="E23" s="127"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128">
         <v>-0.25</v>
       </c>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="123"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A22" s="124"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129">
+      <c r="I23" s="120"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="122"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A24" s="123"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="127"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128">
         <v>-0.25</v>
       </c>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="123"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A23" s="124"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129">
-        <v>-0.25</v>
-      </c>
-      <c r="I23" s="121"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="123"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A24" s="124"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="127" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129">
-        <v>-0.25</v>
-      </c>
-      <c r="I24" s="121"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="123"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="122"/>
     </row>
     <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A25" s="100">
@@ -2552,10 +2549,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -2591,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43">
@@ -2610,7 +2607,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="46">
@@ -2632,10 +2629,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -2650,7 +2647,7 @@
       <c r="B30" s="103"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -2672,10 +2669,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -2690,7 +2687,7 @@
       <c r="B32" s="103"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -2710,30 +2707,30 @@
       <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:12" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A34" s="133" t="str">
+      <c r="A34" s="132" t="str">
         <f>A58</f>
         <v>#</v>
       </c>
-      <c r="B34" s="136" t="str">
+      <c r="B34" s="135" t="str">
         <f>B58</f>
         <v>.#</v>
       </c>
-      <c r="C34" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="134" t="str">
+      <c r="C34" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="133" t="str">
         <f>D58</f>
         <v>Kommentar</v>
       </c>
-      <c r="E34" s="135" t="str">
+      <c r="E34" s="134" t="str">
         <f>E6</f>
         <v>Default</v>
       </c>
-      <c r="F34" s="135" t="str">
+      <c r="F34" s="134" t="str">
         <f>F6</f>
         <v>Bonus</v>
       </c>
-      <c r="G34" s="135" t="str">
+      <c r="G34" s="134" t="str">
         <f>G6</f>
         <v>Malus</v>
       </c>
@@ -2743,18 +2740,18 @@
       <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="119">
+      <c r="A35" s="118">
         <f>A31+1</f>
         <v>2</v>
       </c>
-      <c r="B35" s="120">
+      <c r="B35" s="119">
         <v>1</v>
       </c>
       <c r="C35" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="82" t="s">
         <v>115</v>
-      </c>
-      <c r="D35" s="82" t="s">
-        <v>118</v>
       </c>
       <c r="E35" s="57">
         <v>0.6</v>
@@ -2766,14 +2763,14 @@
       <c r="K35" s="17"/>
       <c r="L35" s="29"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="119"/>
-      <c r="B36" s="120"/>
+    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="118"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E36" s="57"/>
       <c r="F36" s="57"/>
@@ -2784,11 +2781,11 @@
       <c r="L36" s="62"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="119"/>
-      <c r="B37" s="120"/>
+      <c r="A37" s="118"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="58"/>
       <c r="D37" s="83" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E37" s="57"/>
       <c r="F37" s="57"/>
@@ -2800,12 +2797,12 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="110"/>
-      <c r="B38" s="132"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -2817,12 +2814,12 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="110"/>
-      <c r="B39" s="132"/>
+      <c r="B39" s="131"/>
       <c r="C39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -2834,12 +2831,12 @@
     </row>
     <row r="40" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="110"/>
-      <c r="B40" s="132"/>
+      <c r="B40" s="131"/>
       <c r="C40" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -2850,17 +2847,17 @@
       <c r="L40" s="31"/>
     </row>
     <row r="41" spans="1:12" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="141"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="143" t="s">
+      <c r="A41" s="140"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145">
+      <c r="D41" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144">
         <v>-2</v>
       </c>
       <c r="I41" s="60"/>
@@ -2869,19 +2866,19 @@
       <c r="L41" s="62"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="130">
+      <c r="A42" s="129">
         <f>A35</f>
         <v>2</v>
       </c>
-      <c r="B42" s="131">
+      <c r="B42" s="130">
         <f>B35+1</f>
         <v>2</v>
       </c>
-      <c r="C42" s="138" t="s">
-        <v>120</v>
+      <c r="C42" s="137" t="s">
+        <v>117</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E42" s="10">
         <v>0.4</v>
@@ -2894,13 +2891,13 @@
       <c r="L42" s="29"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="119"/>
-      <c r="B43" s="120"/>
+      <c r="A43" s="118"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E43" s="57"/>
       <c r="F43" s="57"/>
@@ -2911,11 +2908,11 @@
       <c r="L43" s="32"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="119"/>
-      <c r="B44" s="120"/>
+      <c r="A44" s="118"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="58"/>
       <c r="D44" s="83" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="57"/>
@@ -2927,12 +2924,12 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="110"/>
-      <c r="B45" s="132"/>
+      <c r="B45" s="131"/>
       <c r="C45" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -2944,12 +2941,12 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="110"/>
-      <c r="B46" s="132"/>
+      <c r="B46" s="131"/>
       <c r="C46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -2965,8 +2962,8 @@
       <c r="C47" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="139" t="s">
-        <v>36</v>
+      <c r="D47" s="138" t="s">
+        <v>35</v>
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="39"/>
@@ -2977,19 +2974,19 @@
       <c r="L47" s="31"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="130">
+      <c r="A48" s="129">
         <f>A42</f>
         <v>2</v>
       </c>
-      <c r="B48" s="131">
+      <c r="B48" s="130">
         <f>B42</f>
         <v>2</v>
       </c>
-      <c r="C48" s="138" t="s">
-        <v>129</v>
+      <c r="C48" s="137" t="s">
+        <v>125</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E48" s="10">
         <v>0.6</v>
@@ -3002,13 +2999,13 @@
       <c r="L48" s="29"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="119"/>
-      <c r="B49" s="120"/>
+      <c r="A49" s="118"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
@@ -3019,11 +3016,11 @@
       <c r="L49" s="32"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="119"/>
-      <c r="B50" s="120"/>
+      <c r="A50" s="118"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="58"/>
       <c r="D50" s="83" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
@@ -3034,11 +3031,11 @@
       <c r="L50" s="32"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="119"/>
-      <c r="B51" s="120"/>
+      <c r="A51" s="118"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="58"/>
       <c r="D51" s="83" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E51" s="57"/>
       <c r="F51" s="57"/>
@@ -3049,11 +3046,11 @@
       <c r="L51" s="32"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="119"/>
-      <c r="B52" s="120"/>
+      <c r="A52" s="118"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="58"/>
       <c r="D52" s="83" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E52" s="57"/>
       <c r="F52" s="57"/>
@@ -3065,12 +3062,12 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="110"/>
-      <c r="B53" s="132"/>
+      <c r="B53" s="131"/>
       <c r="C53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
@@ -3082,12 +3079,12 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="110"/>
-      <c r="B54" s="132"/>
+      <c r="B54" s="131"/>
       <c r="C54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -3099,12 +3096,12 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="110"/>
-      <c r="B55" s="132"/>
+      <c r="B55" s="131"/>
       <c r="C55" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -3120,8 +3117,8 @@
       <c r="C56" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="139" t="s">
-        <v>36</v>
+      <c r="D56" s="138" t="s">
+        <v>35</v>
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
@@ -3139,30 +3136,30 @@
       <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:12" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A58" s="133" t="str">
+      <c r="A58" s="132" t="str">
         <f>A4</f>
         <v>#</v>
       </c>
-      <c r="B58" s="136" t="str">
+      <c r="B58" s="135" t="str">
         <f>B4</f>
         <v>.#</v>
       </c>
-      <c r="C58" s="134" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="134" t="str">
+      <c r="C58" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="133" t="str">
         <f>D4</f>
         <v>Kommentar</v>
       </c>
-      <c r="E58" s="135" t="str">
+      <c r="E58" s="134" t="str">
         <f>E6</f>
         <v>Default</v>
       </c>
-      <c r="F58" s="135" t="str">
+      <c r="F58" s="134" t="str">
         <f>F6</f>
         <v>Bonus</v>
       </c>
-      <c r="G58" s="135" t="str">
+      <c r="G58" s="134" t="str">
         <f>G6</f>
         <v>Malus</v>
       </c>
@@ -3172,18 +3169,18 @@
       <c r="L58" s="29"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="119">
+      <c r="A59" s="118">
         <f>A42+1</f>
         <v>3</v>
       </c>
-      <c r="B59" s="120">
+      <c r="B59" s="119">
         <v>1</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" s="82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E59" s="57">
         <v>0.2</v>
@@ -3196,13 +3193,13 @@
       <c r="L59" s="29"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="119"/>
-      <c r="B60" s="120"/>
+      <c r="A60" s="118"/>
+      <c r="B60" s="119"/>
       <c r="C60" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" s="83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="57"/>
@@ -3213,11 +3210,11 @@
       <c r="L60" s="62"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="119"/>
-      <c r="B61" s="120"/>
+      <c r="A61" s="118"/>
+      <c r="B61" s="119"/>
       <c r="C61" s="58"/>
       <c r="D61" s="83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E61" s="57"/>
       <c r="F61" s="57"/>
@@ -3228,11 +3225,11 @@
       <c r="L61" s="62"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="119"/>
-      <c r="B62" s="120"/>
+      <c r="A62" s="118"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="58"/>
       <c r="D62" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E62" s="57"/>
       <c r="F62" s="57"/>
@@ -3243,13 +3240,13 @@
       <c r="L62" s="62"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="132"/>
-      <c r="B63" s="132"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="131"/>
       <c r="C63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -3260,13 +3257,13 @@
       <c r="L63" s="36"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="132"/>
-      <c r="B64" s="132"/>
+      <c r="A64" s="131"/>
+      <c r="B64" s="131"/>
       <c r="C64" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
@@ -3277,13 +3274,13 @@
       <c r="L64" s="36"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="132"/>
-      <c r="B65" s="132"/>
+      <c r="A65" s="131"/>
+      <c r="B65" s="131"/>
       <c r="C65" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
@@ -3300,7 +3297,7 @@
         <v>11</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E66" s="39"/>
       <c r="F66" s="39"/>
@@ -3311,19 +3308,19 @@
       <c r="L66" s="31"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="119">
+      <c r="A67" s="118">
         <f>A59</f>
         <v>3</v>
       </c>
-      <c r="B67" s="120">
+      <c r="B67" s="119">
         <f>B59+1</f>
         <v>2</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D67" s="82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E67" s="57">
         <v>0.2</v>
@@ -3336,13 +3333,13 @@
       <c r="L67" s="29"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="119"/>
-      <c r="B68" s="120"/>
+      <c r="A68" s="118"/>
+      <c r="B68" s="119"/>
       <c r="C68" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D68" s="83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E68" s="57"/>
       <c r="F68" s="57"/>
@@ -3353,11 +3350,11 @@
       <c r="L68" s="32"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="119"/>
-      <c r="B69" s="120"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="119"/>
       <c r="C69" s="58"/>
       <c r="D69" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E69" s="57"/>
       <c r="F69" s="57"/>
@@ -3368,11 +3365,11 @@
       <c r="L69" s="32"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="119"/>
-      <c r="B70" s="120"/>
+      <c r="A70" s="118"/>
+      <c r="B70" s="119"/>
       <c r="C70" s="58"/>
       <c r="D70" s="83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E70" s="57"/>
       <c r="F70" s="57"/>
@@ -3389,7 +3386,7 @@
         <v>16</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
@@ -3406,7 +3403,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -3423,7 +3420,7 @@
         <v>10</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
@@ -3440,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39"/>
@@ -3451,19 +3448,19 @@
       <c r="L74" s="31"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="119">
+      <c r="A75" s="118">
         <f>A67</f>
         <v>3</v>
       </c>
-      <c r="B75" s="120">
+      <c r="B75" s="119">
         <f>B67+1</f>
         <v>3</v>
       </c>
       <c r="C75" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D75" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E75" s="57">
         <v>0.4</v>
@@ -3476,13 +3473,13 @@
       <c r="L75" s="29"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="119"/>
-      <c r="B76" s="120"/>
+      <c r="A76" s="118"/>
+      <c r="B76" s="119"/>
       <c r="C76" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D76" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E76" s="57"/>
       <c r="F76" s="57"/>
@@ -3493,11 +3490,11 @@
       <c r="L76" s="32"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="119"/>
-      <c r="B77" s="120"/>
+      <c r="A77" s="118"/>
+      <c r="B77" s="119"/>
       <c r="C77" s="58"/>
       <c r="D77" s="83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E77" s="57"/>
       <c r="F77" s="57"/>
@@ -3508,11 +3505,11 @@
       <c r="L77" s="32"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="119"/>
-      <c r="B78" s="120"/>
+      <c r="A78" s="118"/>
+      <c r="B78" s="119"/>
       <c r="C78" s="58"/>
       <c r="D78" s="83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E78" s="57"/>
       <c r="F78" s="57"/>
@@ -3529,7 +3526,7 @@
         <v>16</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -3546,7 +3543,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
@@ -3563,7 +3560,7 @@
         <v>10</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
@@ -3580,7 +3577,7 @@
         <v>11</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="86"/>
@@ -3597,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E83" s="84"/>
       <c r="F83" s="87">
@@ -3616,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E84" s="80"/>
       <c r="F84" s="81">
@@ -3629,19 +3626,19 @@
       <c r="L84" s="31"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="119">
+      <c r="A85" s="118">
         <f>A75</f>
         <v>3</v>
       </c>
-      <c r="B85" s="120">
+      <c r="B85" s="119">
         <f>B75+1</f>
         <v>4</v>
       </c>
       <c r="C85" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D85" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E85" s="10">
         <v>0.4</v>
@@ -3654,62 +3651,62 @@
       <c r="L85" s="29"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="119"/>
-      <c r="B86" s="120"/>
+      <c r="A86" s="118"/>
+      <c r="B86" s="119"/>
       <c r="C86" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D86" s="82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E86" s="57"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
+      <c r="F86" s="136"/>
+      <c r="G86" s="136"/>
       <c r="I86" s="25"/>
       <c r="J86" s="26"/>
       <c r="K86" s="26"/>
       <c r="L86" s="32"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="119"/>
-      <c r="B87" s="120"/>
+      <c r="A87" s="118"/>
+      <c r="B87" s="119"/>
       <c r="C87" s="58"/>
       <c r="D87" s="82" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E87" s="57"/>
-      <c r="F87" s="137"/>
-      <c r="G87" s="137"/>
+      <c r="F87" s="136"/>
+      <c r="G87" s="136"/>
       <c r="I87" s="25"/>
       <c r="J87" s="26"/>
       <c r="K87" s="26"/>
       <c r="L87" s="32"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="119"/>
-      <c r="B88" s="120"/>
+      <c r="A88" s="118"/>
+      <c r="B88" s="119"/>
       <c r="C88" s="58"/>
       <c r="D88" s="82" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E88" s="57"/>
-      <c r="F88" s="137"/>
-      <c r="G88" s="137"/>
+      <c r="F88" s="136"/>
+      <c r="G88" s="136"/>
       <c r="I88" s="25"/>
       <c r="J88" s="26"/>
       <c r="K88" s="26"/>
       <c r="L88" s="32"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="119"/>
-      <c r="B89" s="120"/>
+      <c r="A89" s="118"/>
+      <c r="B89" s="119"/>
       <c r="C89" s="58"/>
       <c r="D89" s="82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E89" s="57"/>
-      <c r="F89" s="137"/>
-      <c r="G89" s="137"/>
+      <c r="F89" s="136"/>
+      <c r="G89" s="136"/>
       <c r="I89" s="25"/>
       <c r="J89" s="26"/>
       <c r="K89" s="26"/>
@@ -3722,11 +3719,11 @@
         <v>16</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E90" s="57"/>
-      <c r="F90" s="137"/>
-      <c r="G90" s="137"/>
+      <c r="F90" s="136"/>
+      <c r="G90" s="136"/>
       <c r="I90" s="25"/>
       <c r="J90" s="26"/>
       <c r="K90" s="26"/>
@@ -3739,7 +3736,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="86"/>
@@ -3756,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="86"/>
@@ -3773,7 +3770,7 @@
         <v>11</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="86"/>
@@ -3790,7 +3787,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E94" s="84"/>
       <c r="F94" s="87">
@@ -3809,7 +3806,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E95" s="80"/>
       <c r="F95" s="81">
@@ -3822,19 +3819,19 @@
       <c r="L95" s="31"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="119">
+      <c r="A96" s="118">
         <f>A85</f>
         <v>3</v>
       </c>
-      <c r="B96" s="120">
+      <c r="B96" s="119">
         <f>B85+1</f>
         <v>5</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D96" s="82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E96" s="57">
         <v>0.4</v>
@@ -3847,13 +3844,13 @@
       <c r="L96" s="29"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="119"/>
-      <c r="B97" s="120"/>
+      <c r="A97" s="118"/>
+      <c r="B97" s="119"/>
       <c r="C97" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D97" s="82" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E97" s="57"/>
       <c r="F97" s="57"/>
@@ -3864,11 +3861,11 @@
       <c r="L97" s="32"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="119"/>
-      <c r="B98" s="120"/>
+      <c r="A98" s="118"/>
+      <c r="B98" s="119"/>
       <c r="C98" s="58"/>
       <c r="D98" s="82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E98" s="57"/>
       <c r="F98" s="57"/>
@@ -3879,11 +3876,11 @@
       <c r="L98" s="32"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="119"/>
-      <c r="B99" s="120"/>
+      <c r="A99" s="118"/>
+      <c r="B99" s="119"/>
       <c r="C99" s="58"/>
       <c r="D99" s="82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E99" s="57"/>
       <c r="F99" s="57"/>
@@ -3900,7 +3897,7 @@
         <v>16</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E100" s="57"/>
       <c r="F100" s="57"/>
@@ -3917,7 +3914,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -3934,7 +3931,7 @@
         <v>10</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
@@ -3951,7 +3948,7 @@
         <v>11</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="86"/>
@@ -3968,7 +3965,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E104" s="84"/>
       <c r="F104" s="87">
@@ -3987,7 +3984,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E105" s="80"/>
       <c r="F105" s="81">
@@ -4000,19 +3997,19 @@
       <c r="L105" s="31"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="130">
+      <c r="A106" s="129">
         <f>A96</f>
         <v>3</v>
       </c>
-      <c r="B106" s="131">
+      <c r="B106" s="130">
         <f>B96+1</f>
         <v>6</v>
       </c>
-      <c r="C106" s="138" t="s">
-        <v>74</v>
+      <c r="C106" s="137" t="s">
+        <v>72</v>
       </c>
       <c r="D106" s="52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E106" s="10">
         <v>0.6</v>
@@ -4025,13 +4022,13 @@
       <c r="L106" s="29"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="119"/>
-      <c r="B107" s="120"/>
+      <c r="A107" s="118"/>
+      <c r="B107" s="119"/>
       <c r="C107" s="58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E107" s="57"/>
       <c r="F107" s="57"/>
@@ -4042,11 +4039,11 @@
       <c r="L107" s="32"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="119"/>
-      <c r="B108" s="120"/>
+      <c r="A108" s="118"/>
+      <c r="B108" s="119"/>
       <c r="C108" s="58"/>
       <c r="D108" s="82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E108" s="57"/>
       <c r="F108" s="57"/>
@@ -4057,11 +4054,11 @@
       <c r="L108" s="32"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="119"/>
-      <c r="B109" s="120"/>
+      <c r="A109" s="118"/>
+      <c r="B109" s="119"/>
       <c r="C109" s="58"/>
       <c r="D109" s="82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E109" s="57"/>
       <c r="F109" s="57"/>
@@ -4078,7 +4075,7 @@
         <v>16</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
@@ -4095,7 +4092,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
@@ -4112,7 +4109,7 @@
         <v>10</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -4125,11 +4122,11 @@
     <row r="113" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A113" s="112"/>
       <c r="B113" s="113"/>
-      <c r="C113" s="139" t="s">
+      <c r="C113" s="138" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E113" s="39"/>
       <c r="F113" s="39"/>
@@ -4140,19 +4137,19 @@
       <c r="L113" s="31"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="130">
+      <c r="A114" s="129">
         <f>A106</f>
         <v>3</v>
       </c>
-      <c r="B114" s="131">
+      <c r="B114" s="130">
         <f>B106+1</f>
         <v>7</v>
       </c>
-      <c r="C114" s="138" t="s">
-        <v>76</v>
+      <c r="C114" s="137" t="s">
+        <v>74</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E114" s="10">
         <v>0.6</v>
@@ -4165,13 +4162,13 @@
       <c r="L114" s="29"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="119"/>
-      <c r="B115" s="120"/>
+      <c r="A115" s="118"/>
+      <c r="B115" s="119"/>
       <c r="C115" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D115" s="56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E115" s="57"/>
       <c r="F115" s="57"/>
@@ -4182,11 +4179,11 @@
       <c r="L115" s="32"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="119"/>
-      <c r="B116" s="120"/>
+      <c r="A116" s="118"/>
+      <c r="B116" s="119"/>
       <c r="C116" s="58"/>
       <c r="D116" s="56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E116" s="57"/>
       <c r="F116" s="57"/>
@@ -4197,11 +4194,11 @@
       <c r="L116" s="32"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="119"/>
-      <c r="B117" s="120"/>
+      <c r="A117" s="118"/>
+      <c r="B117" s="119"/>
       <c r="C117" s="58"/>
       <c r="D117" s="56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E117" s="57"/>
       <c r="F117" s="57"/>
@@ -4218,7 +4215,7 @@
         <v>16</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
@@ -4235,7 +4232,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
@@ -4252,7 +4249,7 @@
         <v>10</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
@@ -4265,11 +4262,11 @@
     <row r="121" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A121" s="112"/>
       <c r="B121" s="113"/>
-      <c r="C121" s="139" t="s">
+      <c r="C121" s="138" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E121" s="39"/>
       <c r="F121" s="39"/>
@@ -4289,10 +4286,10 @@
         <v>8</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E122" s="10">
         <v>0.6</v>
@@ -4305,13 +4302,13 @@
       <c r="L122" s="29"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="119"/>
-      <c r="B123" s="120"/>
+      <c r="A123" s="118"/>
+      <c r="B123" s="119"/>
       <c r="C123" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D123" s="56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E123" s="57"/>
       <c r="F123" s="57"/>
@@ -4322,11 +4319,11 @@
       <c r="L123" s="32"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="119"/>
-      <c r="B124" s="120"/>
+      <c r="A124" s="118"/>
+      <c r="B124" s="119"/>
       <c r="C124" s="58"/>
       <c r="D124" s="56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E124" s="57"/>
       <c r="F124" s="57"/>
@@ -4337,11 +4334,11 @@
       <c r="L124" s="32"/>
     </row>
     <row r="125" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="119"/>
-      <c r="B125" s="120"/>
+      <c r="A125" s="118"/>
+      <c r="B125" s="119"/>
       <c r="C125" s="58"/>
       <c r="D125" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E125" s="57"/>
       <c r="F125" s="57"/>
@@ -4358,7 +4355,7 @@
         <v>16</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
@@ -4375,7 +4372,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
@@ -4392,7 +4389,7 @@
         <v>10</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
@@ -4405,11 +4402,11 @@
     <row r="129" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A129" s="112"/>
       <c r="B129" s="113"/>
-      <c r="C129" s="139" t="s">
+      <c r="C129" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="139" t="s">
-        <v>36</v>
+      <c r="D129" s="138" t="s">
+        <v>35</v>
       </c>
       <c r="E129" s="39"/>
       <c r="F129" s="39"/>
@@ -4420,8 +4417,8 @@
       <c r="L129" s="31"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="118"/>
-      <c r="B130" s="118"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wiki/media/de/modul/m288/learningunits/lu00/m288_lb2_bewertungraster_2025he_me28.xlsx
+++ b/wiki/media/de/modul/m288/learningunits/lu00/m288_lb2_bewertungraster_2025he_me28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bzzch-my.sharepoint.com/personal/volkan_demir_bzz_ch/Documents/--- Latest Version ---/M288 - 2025HE/LU00_Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{1F0E6DCC-AB6E-4386-BC95-EEACC7AF54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{521E3559-D545-4C91-9C33-07BDF895EBD5}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{1F0E6DCC-AB6E-4386-BC95-EEACC7AF54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59EB46E7-2C0C-3A49-9D87-6235063222B9}"/>
   <bookViews>
-    <workbookView xWindow="63375" yWindow="0" windowWidth="22335" windowHeight="17850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorlage" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
   <si>
     <t>#</t>
   </si>
@@ -258,18 +258,6 @@
     <t xml:space="preserve"> Gütestufe 4</t>
   </si>
   <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>Korrekte JSON-Syntax (Saubere Key-Values, Strings in Hochkomma, keine Kommentare,...)</t>
-  </si>
-  <si>
-    <t>Zum den Daten passende Datenstrukturen (String, boolean, number, datum,….)</t>
-  </si>
-  <si>
-    <t>Struktur und Verschachtelung ist sinnvoll und nachvollziehbar.</t>
-  </si>
-  <si>
     <t>Die Auswahl des gewählten Loop-Typs ist sinnvoll.</t>
   </si>
   <si>
@@ -277,9 +265,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 fach geschachtelte Schleifen </t>
-  </si>
-  <si>
-    <t>Sinnvolle, nicht kryptische &amp; konsistente Key-Namen: camelCase oder snake_case, nicht gemischt</t>
   </si>
   <si>
     <t>HTML-DOM</t>
@@ -1755,11 +1740,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Ausgabe" xfId="4" builtinId="21"/>
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1772,6 +1757,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2037,28 +2026,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.20703125" style="95" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.578125" customWidth="1"/>
-    <col min="4" max="4" width="80.9453125" customWidth="1"/>
-    <col min="5" max="5" width="9.5234375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.68359375" style="3"/>
-    <col min="8" max="8" width="4.15625" customWidth="1"/>
-    <col min="9" max="9" width="7.3125" customWidth="1"/>
+    <col min="1" max="2" width="3.1640625" style="95" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="81" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="3"/>
+    <col min="8" max="8" width="4.1640625" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="8.15625" customWidth="1"/>
-    <col min="12" max="12" width="47.1015625" style="28" customWidth="1"/>
-    <col min="13" max="13" width="5.83984375" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="12" max="12" width="47.1640625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:12" ht="23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="88"/>
       <c r="B1" s="89"/>
       <c r="C1" s="23" t="s">
@@ -2081,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="90"/>
       <c r="B2" s="91"/>
       <c r="C2" s="24" t="s">
@@ -2089,26 +2078,26 @@
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="53">
-        <f>SUM(E7:E129)</f>
+        <f>SUM(E7:E121)</f>
         <v>5.9999999999999991</v>
       </c>
       <c r="F2" s="53"/>
       <c r="G2" s="53"/>
       <c r="I2" s="14">
-        <f>SUM(I6:I129)</f>
+        <f>SUM(I6:I121)</f>
         <v>0</v>
       </c>
       <c r="J2" s="15">
-        <f>SUM(J6:J129)</f>
+        <f>SUM(J6:J121)</f>
         <v>0</v>
       </c>
       <c r="K2" s="15">
-        <f>SUM(K6:K129)</f>
+        <f>SUM(K6:K121)</f>
         <v>0</v>
       </c>
       <c r="L2" s="139"/>
     </row>
-    <row r="3" spans="1:12" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="92"/>
       <c r="B3" s="92"/>
       <c r="C3" s="33"/>
@@ -2121,7 +2110,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="35"/>
     </row>
-    <row r="4" spans="1:12" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
@@ -2145,14 +2134,14 @@
       </c>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="96" t="str">
         <f>A4</f>
         <v>#</v>
@@ -2191,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98">
         <v>1</v>
       </c>
@@ -2212,7 +2201,7 @@
       <c r="K7" s="65"/>
       <c r="L7" s="66"/>
     </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="100">
         <f>A7</f>
         <v>1</v>
@@ -2225,7 +2214,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -2235,7 +2224,7 @@
       <c r="K8" s="68"/>
       <c r="L8" s="69"/>
     </row>
-    <row r="9" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="102"/>
       <c r="B9" s="103"/>
       <c r="C9" s="7" t="s">
@@ -2254,7 +2243,7 @@
       <c r="K9" s="71"/>
       <c r="L9" s="72"/>
     </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="118">
         <f>A8</f>
         <v>1</v>
@@ -2267,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2277,12 +2266,12 @@
       <c r="K10" s="63"/>
       <c r="L10" s="74"/>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="118"/>
       <c r="B11" s="119"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="59"/>
@@ -2292,14 +2281,14 @@
       <c r="K11" s="121"/>
       <c r="L11" s="122"/>
     </row>
-    <row r="12" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="102"/>
       <c r="B12" s="103"/>
       <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2311,7 +2300,7 @@
       <c r="K12" s="76"/>
       <c r="L12" s="77"/>
     </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="100">
         <f>A10</f>
         <v>1</v>
@@ -2321,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>20</v>
@@ -2334,14 +2323,14 @@
       <c r="K13" s="65"/>
       <c r="L13" s="66"/>
     </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="123"/>
       <c r="B14" s="124"/>
       <c r="C14" s="125" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="126" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E14" s="127"/>
       <c r="F14" s="128"/>
@@ -2353,12 +2342,12 @@
       <c r="K14" s="121"/>
       <c r="L14" s="122"/>
     </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="123"/>
       <c r="B15" s="124"/>
       <c r="C15" s="125"/>
       <c r="D15" s="126" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E15" s="127"/>
       <c r="F15" s="128"/>
@@ -2370,12 +2359,12 @@
       <c r="K15" s="121"/>
       <c r="L15" s="122"/>
     </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="123"/>
       <c r="B16" s="124"/>
       <c r="C16" s="125"/>
       <c r="D16" s="126" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E16" s="127"/>
       <c r="F16" s="128"/>
@@ -2387,12 +2376,12 @@
       <c r="K16" s="121"/>
       <c r="L16" s="122"/>
     </row>
-    <row r="17" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="123"/>
       <c r="B17" s="124"/>
       <c r="C17" s="125"/>
       <c r="D17" s="126" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E17" s="127"/>
       <c r="F17" s="128"/>
@@ -2404,7 +2393,7 @@
       <c r="K17" s="71"/>
       <c r="L17" s="72"/>
     </row>
-    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="100">
         <f>A13</f>
         <v>1</v>
@@ -2417,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -2427,14 +2416,14 @@
       <c r="K18" s="65"/>
       <c r="L18" s="66"/>
     </row>
-    <row r="19" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="102"/>
       <c r="B19" s="103"/>
       <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -2446,7 +2435,7 @@
       <c r="K19" s="71"/>
       <c r="L19" s="72"/>
     </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="100">
         <f>A18</f>
         <v>1</v>
@@ -2456,10 +2445,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="85"/>
@@ -2469,7 +2458,7 @@
       <c r="K20" s="65"/>
       <c r="L20" s="66"/>
     </row>
-    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="123"/>
       <c r="B21" s="124"/>
       <c r="C21" s="125" t="s">
@@ -2488,7 +2477,7 @@
       <c r="K21" s="121"/>
       <c r="L21" s="122"/>
     </row>
-    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="123"/>
       <c r="B22" s="124"/>
       <c r="C22" s="125"/>
@@ -2505,7 +2494,7 @@
       <c r="K22" s="121"/>
       <c r="L22" s="122"/>
     </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="123"/>
       <c r="B23" s="124"/>
       <c r="C23" s="125"/>
@@ -2522,7 +2511,7 @@
       <c r="K23" s="121"/>
       <c r="L23" s="122"/>
     </row>
-    <row r="24" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="123"/>
       <c r="B24" s="124"/>
       <c r="C24" s="125"/>
@@ -2539,7 +2528,7 @@
       <c r="K24" s="121"/>
       <c r="L24" s="122"/>
     </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="100">
         <f>A20</f>
         <v>1</v>
@@ -2549,10 +2538,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -2562,7 +2551,7 @@
       <c r="K25" s="65"/>
       <c r="L25" s="66"/>
     </row>
-    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="104"/>
       <c r="B26" s="105"/>
       <c r="C26" s="6" t="s">
@@ -2581,14 +2570,14 @@
       <c r="K26" s="68"/>
       <c r="L26" s="69"/>
     </row>
-    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="106"/>
       <c r="B27" s="107"/>
       <c r="C27" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43">
@@ -2600,7 +2589,7 @@
       <c r="K27" s="68"/>
       <c r="L27" s="69"/>
     </row>
-    <row r="28" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="108"/>
       <c r="B28" s="109"/>
       <c r="C28" s="44" t="s">
@@ -2619,7 +2608,7 @@
       <c r="K28" s="71"/>
       <c r="L28" s="72"/>
     </row>
-    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="100">
         <f>A25</f>
         <v>1</v>
@@ -2629,10 +2618,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -2642,12 +2631,12 @@
       <c r="K29" s="65"/>
       <c r="L29" s="66"/>
     </row>
-    <row r="30" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="102"/>
       <c r="B30" s="103"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -2659,7 +2648,7 @@
       <c r="K30" s="71"/>
       <c r="L30" s="72"/>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="100">
         <f>A29</f>
         <v>1</v>
@@ -2669,10 +2658,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -2682,7 +2671,7 @@
       <c r="K31" s="63"/>
       <c r="L31" s="74"/>
     </row>
-    <row r="32" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="102"/>
       <c r="B32" s="103"/>
       <c r="C32" s="7"/>
@@ -2699,14 +2688,14 @@
       <c r="K32" s="71"/>
       <c r="L32" s="72"/>
     </row>
-    <row r="33" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:12" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="34" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="132" t="str">
         <f>A58</f>
         <v>#</v>
@@ -2716,7 +2705,7 @@
         <v>.#</v>
       </c>
       <c r="C34" s="133" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D34" s="133" t="str">
         <f>D58</f>
@@ -2739,7 +2728,7 @@
       <c r="K34" s="17"/>
       <c r="L34" s="29"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="118">
         <f>A31+1</f>
         <v>2</v>
@@ -2748,10 +2737,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E35" s="57">
         <v>0.6</v>
@@ -2763,14 +2752,14 @@
       <c r="K35" s="17"/>
       <c r="L35" s="29"/>
     </row>
-    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="118"/>
       <c r="B36" s="119"/>
       <c r="C36" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E36" s="57"/>
       <c r="F36" s="57"/>
@@ -2780,12 +2769,12 @@
       <c r="K36" s="61"/>
       <c r="L36" s="62"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="118"/>
       <c r="B37" s="119"/>
       <c r="C37" s="58"/>
       <c r="D37" s="83" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E37" s="57"/>
       <c r="F37" s="57"/>
@@ -2795,7 +2784,7 @@
       <c r="K37" s="61"/>
       <c r="L37" s="62"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="110"/>
       <c r="B38" s="131"/>
       <c r="C38" s="5" t="s">
@@ -2812,7 +2801,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="36"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="110"/>
       <c r="B39" s="131"/>
       <c r="C39" s="5" t="s">
@@ -2829,7 +2818,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="36"/>
     </row>
-    <row r="40" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
       <c r="B40" s="131"/>
       <c r="C40" s="5" t="s">
@@ -2846,14 +2835,14 @@
       <c r="K40" s="20"/>
       <c r="L40" s="31"/>
     </row>
-    <row r="41" spans="1:12" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:12" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="140"/>
       <c r="B41" s="141"/>
       <c r="C41" s="142" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="143" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E41" s="144"/>
       <c r="F41" s="144"/>
@@ -2865,7 +2854,7 @@
       <c r="K41" s="61"/>
       <c r="L41" s="62"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="129">
         <f>A35</f>
         <v>2</v>
@@ -2875,13 +2864,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="137" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E42" s="10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -2890,14 +2879,14 @@
       <c r="K42" s="17"/>
       <c r="L42" s="29"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="118"/>
       <c r="B43" s="119"/>
       <c r="C43" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E43" s="57"/>
       <c r="F43" s="57"/>
@@ -2907,12 +2896,12 @@
       <c r="K43" s="26"/>
       <c r="L43" s="32"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="118"/>
       <c r="B44" s="119"/>
       <c r="C44" s="58"/>
       <c r="D44" s="83" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="57"/>
@@ -2922,14 +2911,14 @@
       <c r="K44" s="26"/>
       <c r="L44" s="32"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="110"/>
       <c r="B45" s="131"/>
       <c r="C45" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -2939,14 +2928,14 @@
       <c r="K45" s="26"/>
       <c r="L45" s="32"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="110"/>
       <c r="B46" s="131"/>
       <c r="C46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -2956,7 +2945,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="30"/>
     </row>
-    <row r="47" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="112"/>
       <c r="B47" s="113"/>
       <c r="C47" s="38" t="s">
@@ -2973,7 +2962,7 @@
       <c r="K47" s="20"/>
       <c r="L47" s="31"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="129">
         <f>A42</f>
         <v>2</v>
@@ -2983,10 +2972,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="137" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E48" s="10">
         <v>0.6</v>
@@ -2998,14 +2987,14 @@
       <c r="K48" s="17"/>
       <c r="L48" s="29"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="118"/>
       <c r="B49" s="119"/>
       <c r="C49" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
@@ -3015,12 +3004,12 @@
       <c r="K49" s="26"/>
       <c r="L49" s="32"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="118"/>
       <c r="B50" s="119"/>
       <c r="C50" s="58"/>
       <c r="D50" s="83" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="57"/>
@@ -3030,12 +3019,12 @@
       <c r="K50" s="26"/>
       <c r="L50" s="32"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="118"/>
       <c r="B51" s="119"/>
       <c r="C51" s="58"/>
       <c r="D51" s="83" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E51" s="57"/>
       <c r="F51" s="57"/>
@@ -3045,12 +3034,12 @@
       <c r="K51" s="26"/>
       <c r="L51" s="32"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="118"/>
       <c r="B52" s="119"/>
       <c r="C52" s="58"/>
       <c r="D52" s="83" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E52" s="57"/>
       <c r="F52" s="57"/>
@@ -3060,14 +3049,14 @@
       <c r="K52" s="26"/>
       <c r="L52" s="32"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="110"/>
       <c r="B53" s="131"/>
       <c r="C53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
@@ -3077,7 +3066,7 @@
       <c r="K53" s="26"/>
       <c r="L53" s="32"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="110"/>
       <c r="B54" s="131"/>
       <c r="C54" s="5" t="s">
@@ -3094,7 +3083,7 @@
       <c r="K54" s="26"/>
       <c r="L54" s="32"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="110"/>
       <c r="B55" s="131"/>
       <c r="C55" s="5" t="s">
@@ -3111,7 +3100,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="30"/>
     </row>
-    <row r="56" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="112"/>
       <c r="B56" s="113"/>
       <c r="C56" s="38" t="s">
@@ -3128,14 +3117,14 @@
       <c r="K56" s="20"/>
       <c r="L56" s="31"/>
     </row>
-    <row r="57" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:12" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="58" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="132" t="str">
         <f>A4</f>
         <v>#</v>
@@ -3145,7 +3134,7 @@
         <v>.#</v>
       </c>
       <c r="C58" s="133" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D58" s="133" t="str">
         <f>D4</f>
@@ -3168,7 +3157,7 @@
       <c r="K58" s="17"/>
       <c r="L58" s="29"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="118">
         <f>A42+1</f>
         <v>3</v>
@@ -3192,7 +3181,7 @@
       <c r="K59" s="17"/>
       <c r="L59" s="29"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="118"/>
       <c r="B60" s="119"/>
       <c r="C60" s="58" t="s">
@@ -3209,7 +3198,7 @@
       <c r="K60" s="61"/>
       <c r="L60" s="62"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="118"/>
       <c r="B61" s="119"/>
       <c r="C61" s="58"/>
@@ -3224,7 +3213,7 @@
       <c r="K61" s="61"/>
       <c r="L61" s="62"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="118"/>
       <c r="B62" s="119"/>
       <c r="C62" s="58"/>
@@ -3239,14 +3228,14 @@
       <c r="K62" s="61"/>
       <c r="L62" s="62"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="131"/>
       <c r="B63" s="131"/>
       <c r="C63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -3256,14 +3245,14 @@
       <c r="K63" s="22"/>
       <c r="L63" s="36"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="131"/>
       <c r="B64" s="131"/>
       <c r="C64" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
@@ -3273,14 +3262,14 @@
       <c r="K64" s="22"/>
       <c r="L64" s="36"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="131"/>
       <c r="B65" s="131"/>
       <c r="C65" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
@@ -3290,7 +3279,7 @@
       <c r="K65" s="22"/>
       <c r="L65" s="36"/>
     </row>
-    <row r="66" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="112"/>
       <c r="B66" s="113"/>
       <c r="C66" s="38" t="s">
@@ -3307,7 +3296,7 @@
       <c r="K66" s="20"/>
       <c r="L66" s="31"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="118">
         <f>A59</f>
         <v>3</v>
@@ -3332,7 +3321,7 @@
       <c r="K67" s="17"/>
       <c r="L67" s="29"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="118"/>
       <c r="B68" s="119"/>
       <c r="C68" s="58" t="s">
@@ -3349,7 +3338,7 @@
       <c r="K68" s="26"/>
       <c r="L68" s="32"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="118"/>
       <c r="B69" s="119"/>
       <c r="C69" s="58"/>
@@ -3364,7 +3353,7 @@
       <c r="K69" s="26"/>
       <c r="L69" s="32"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="118"/>
       <c r="B70" s="119"/>
       <c r="C70" s="58"/>
@@ -3379,14 +3368,14 @@
       <c r="K70" s="26"/>
       <c r="L70" s="32"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="110"/>
       <c r="B71" s="111"/>
       <c r="C71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
@@ -3396,14 +3385,14 @@
       <c r="K71" s="26"/>
       <c r="L71" s="32"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="110"/>
       <c r="B72" s="111"/>
       <c r="C72" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -3413,14 +3402,14 @@
       <c r="K72" s="26"/>
       <c r="L72" s="32"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="110"/>
       <c r="B73" s="111"/>
       <c r="C73" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
@@ -3430,7 +3419,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="30"/>
     </row>
-    <row r="74" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="112"/>
       <c r="B74" s="113"/>
       <c r="C74" s="38" t="s">
@@ -3447,7 +3436,7 @@
       <c r="K74" s="20"/>
       <c r="L74" s="31"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="118">
         <f>A67</f>
         <v>3</v>
@@ -3472,7 +3461,7 @@
       <c r="K75" s="17"/>
       <c r="L75" s="29"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="118"/>
       <c r="B76" s="119"/>
       <c r="C76" s="58" t="s">
@@ -3489,7 +3478,7 @@
       <c r="K76" s="26"/>
       <c r="L76" s="32"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="118"/>
       <c r="B77" s="119"/>
       <c r="C77" s="58"/>
@@ -3504,7 +3493,7 @@
       <c r="K77" s="26"/>
       <c r="L77" s="32"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="118"/>
       <c r="B78" s="119"/>
       <c r="C78" s="58"/>
@@ -3519,7 +3508,7 @@
       <c r="K78" s="26"/>
       <c r="L78" s="32"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="110"/>
       <c r="B79" s="111"/>
       <c r="C79" s="5" t="s">
@@ -3536,7 +3525,7 @@
       <c r="K79" s="26"/>
       <c r="L79" s="32"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="110"/>
       <c r="B80" s="111"/>
       <c r="C80" s="5" t="s">
@@ -3553,7 +3542,7 @@
       <c r="K80" s="1"/>
       <c r="L80" s="30"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="110"/>
       <c r="B81" s="111"/>
       <c r="C81" s="5" t="s">
@@ -3570,14 +3559,14 @@
       <c r="K81" s="26"/>
       <c r="L81" s="32"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="110"/>
       <c r="B82" s="111"/>
       <c r="C82" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="86"/>
@@ -3587,7 +3576,7 @@
       <c r="K82" s="26"/>
       <c r="L82" s="32"/>
     </row>
-    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="114"/>
       <c r="B83" s="115"/>
       <c r="C83" s="78" t="s">
@@ -3606,14 +3595,14 @@
       <c r="K83" s="1"/>
       <c r="L83" s="30"/>
     </row>
-    <row r="84" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="116"/>
       <c r="B84" s="117"/>
       <c r="C84" s="79" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E84" s="80"/>
       <c r="F84" s="81">
@@ -3625,7 +3614,7 @@
       <c r="K84" s="20"/>
       <c r="L84" s="31"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="118">
         <f>A75</f>
         <v>3</v>
@@ -3641,7 +3630,7 @@
         <v>24</v>
       </c>
       <c r="E85" s="10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F85" s="85"/>
       <c r="G85" s="85"/>
@@ -3650,7 +3639,7 @@
       <c r="K85" s="17"/>
       <c r="L85" s="29"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="118"/>
       <c r="B86" s="119"/>
       <c r="C86" s="58" t="s">
@@ -3667,12 +3656,12 @@
       <c r="K86" s="26"/>
       <c r="L86" s="32"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="118"/>
       <c r="B87" s="119"/>
       <c r="C87" s="58"/>
       <c r="D87" s="82" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E87" s="57"/>
       <c r="F87" s="136"/>
@@ -3682,12 +3671,12 @@
       <c r="K87" s="26"/>
       <c r="L87" s="32"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="118"/>
       <c r="B88" s="119"/>
       <c r="C88" s="58"/>
       <c r="D88" s="82" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E88" s="57"/>
       <c r="F88" s="136"/>
@@ -3697,12 +3686,12 @@
       <c r="K88" s="26"/>
       <c r="L88" s="32"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="118"/>
       <c r="B89" s="119"/>
       <c r="C89" s="58"/>
       <c r="D89" s="82" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E89" s="57"/>
       <c r="F89" s="136"/>
@@ -3712,14 +3701,14 @@
       <c r="K89" s="26"/>
       <c r="L89" s="32"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="110"/>
       <c r="B90" s="111"/>
       <c r="C90" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E90" s="57"/>
       <c r="F90" s="136"/>
@@ -3729,14 +3718,14 @@
       <c r="K90" s="26"/>
       <c r="L90" s="32"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="110"/>
       <c r="B91" s="111"/>
       <c r="C91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="86"/>
@@ -3746,14 +3735,14 @@
       <c r="K91" s="1"/>
       <c r="L91" s="30"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="110"/>
       <c r="B92" s="111"/>
       <c r="C92" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="86"/>
@@ -3763,14 +3752,14 @@
       <c r="K92" s="1"/>
       <c r="L92" s="30"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="110"/>
       <c r="B93" s="111"/>
       <c r="C93" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="86"/>
@@ -3780,7 +3769,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="30"/>
     </row>
-    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="114"/>
       <c r="B94" s="115"/>
       <c r="C94" s="78" t="s">
@@ -3799,7 +3788,7 @@
       <c r="K94" s="22"/>
       <c r="L94" s="36"/>
     </row>
-    <row r="95" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="116"/>
       <c r="B95" s="117"/>
       <c r="C95" s="79" t="s">
@@ -3818,7 +3807,7 @@
       <c r="K95" s="20"/>
       <c r="L95" s="31"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="118">
         <f>A85</f>
         <v>3</v>
@@ -3834,7 +3823,7 @@
         <v>26</v>
       </c>
       <c r="E96" s="57">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F96" s="57"/>
       <c r="G96" s="57"/>
@@ -3843,7 +3832,7 @@
       <c r="K96" s="17"/>
       <c r="L96" s="29"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="118"/>
       <c r="B97" s="119"/>
       <c r="C97" s="58" t="s">
@@ -3860,7 +3849,7 @@
       <c r="K97" s="26"/>
       <c r="L97" s="32"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="118"/>
       <c r="B98" s="119"/>
       <c r="C98" s="58"/>
@@ -3875,12 +3864,12 @@
       <c r="K98" s="26"/>
       <c r="L98" s="32"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="118"/>
       <c r="B99" s="119"/>
       <c r="C99" s="58"/>
       <c r="D99" s="82" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E99" s="57"/>
       <c r="F99" s="57"/>
@@ -3890,14 +3879,14 @@
       <c r="K99" s="26"/>
       <c r="L99" s="32"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="110"/>
       <c r="B100" s="111"/>
       <c r="C100" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E100" s="57"/>
       <c r="F100" s="57"/>
@@ -3907,14 +3896,14 @@
       <c r="K100" s="26"/>
       <c r="L100" s="32"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="110"/>
       <c r="B101" s="111"/>
       <c r="C101" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -3924,14 +3913,14 @@
       <c r="K101" s="1"/>
       <c r="L101" s="30"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="110"/>
       <c r="B102" s="111"/>
       <c r="C102" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
@@ -3941,14 +3930,14 @@
       <c r="K102" s="1"/>
       <c r="L102" s="30"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="110"/>
       <c r="B103" s="111"/>
       <c r="C103" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="86"/>
@@ -3958,14 +3947,14 @@
       <c r="K103" s="1"/>
       <c r="L103" s="30"/>
     </row>
-    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="114"/>
       <c r="B104" s="115"/>
       <c r="C104" s="78" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E104" s="84"/>
       <c r="F104" s="87">
@@ -3977,7 +3966,7 @@
       <c r="K104" s="22"/>
       <c r="L104" s="36"/>
     </row>
-    <row r="105" spans="1:12" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="116"/>
       <c r="B105" s="117"/>
       <c r="C105" s="79" t="s">
@@ -3996,7 +3985,7 @@
       <c r="K105" s="20"/>
       <c r="L105" s="31"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="129">
         <f>A96</f>
         <v>3</v>
@@ -4021,7 +4010,7 @@
       <c r="K106" s="17"/>
       <c r="L106" s="29"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="118"/>
       <c r="B107" s="119"/>
       <c r="C107" s="58" t="s">
@@ -4038,7 +4027,7 @@
       <c r="K107" s="26"/>
       <c r="L107" s="32"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="118"/>
       <c r="B108" s="119"/>
       <c r="C108" s="58"/>
@@ -4053,7 +4042,7 @@
       <c r="K108" s="26"/>
       <c r="L108" s="32"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="118"/>
       <c r="B109" s="119"/>
       <c r="C109" s="58"/>
@@ -4068,7 +4057,7 @@
       <c r="K109" s="26"/>
       <c r="L109" s="32"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="110"/>
       <c r="B110" s="111"/>
       <c r="C110" s="5" t="s">
@@ -4085,7 +4074,7 @@
       <c r="K110" s="1"/>
       <c r="L110" s="30"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="110"/>
       <c r="B111" s="111"/>
       <c r="C111" s="5" t="s">
@@ -4102,7 +4091,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="30"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="110"/>
       <c r="B112" s="111"/>
       <c r="C112" s="5" t="s">
@@ -4119,7 +4108,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="30"/>
     </row>
-    <row r="113" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="112"/>
       <c r="B113" s="113"/>
       <c r="C113" s="138" t="s">
@@ -4136,20 +4125,20 @@
       <c r="K113" s="20"/>
       <c r="L113" s="31"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="129">
-        <f>A106</f>
-        <v>3</v>
-      </c>
-      <c r="B114" s="130">
-        <f>B106+1</f>
-        <v>7</v>
-      </c>
-      <c r="C114" s="137" t="s">
-        <v>74</v>
+    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="100" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B114" s="101" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E114" s="10">
         <v>0.6</v>
@@ -4161,14 +4150,14 @@
       <c r="K114" s="17"/>
       <c r="L114" s="29"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="118"/>
       <c r="B115" s="119"/>
       <c r="C115" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D115" s="56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E115" s="57"/>
       <c r="F115" s="57"/>
@@ -4178,12 +4167,12 @@
       <c r="K115" s="26"/>
       <c r="L115" s="32"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="118"/>
       <c r="B116" s="119"/>
       <c r="C116" s="58"/>
       <c r="D116" s="56" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E116" s="57"/>
       <c r="F116" s="57"/>
@@ -4193,12 +4182,12 @@
       <c r="K116" s="26"/>
       <c r="L116" s="32"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="118"/>
       <c r="B117" s="119"/>
       <c r="C117" s="58"/>
       <c r="D117" s="56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E117" s="57"/>
       <c r="F117" s="57"/>
@@ -4208,7 +4197,7 @@
       <c r="K117" s="26"/>
       <c r="L117" s="32"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="110"/>
       <c r="B118" s="111"/>
       <c r="C118" s="5" t="s">
@@ -4225,7 +4214,7 @@
       <c r="K118" s="1"/>
       <c r="L118" s="30"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="110"/>
       <c r="B119" s="111"/>
       <c r="C119" s="5" t="s">
@@ -4242,7 +4231,7 @@
       <c r="K119" s="1"/>
       <c r="L119" s="30"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="110"/>
       <c r="B120" s="111"/>
       <c r="C120" s="5" t="s">
@@ -4259,166 +4248,26 @@
       <c r="K120" s="1"/>
       <c r="L120" s="30"/>
     </row>
-    <row r="121" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="112"/>
       <c r="B121" s="113"/>
       <c r="C121" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="138" t="s">
         <v>35</v>
       </c>
       <c r="E121" s="39"/>
       <c r="F121" s="39"/>
       <c r="G121" s="39"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="26"/>
-      <c r="K121" s="26"/>
-      <c r="L121" s="32"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="100">
-        <f>A114</f>
-        <v>3</v>
-      </c>
-      <c r="B122" s="101">
-        <f>B114+1</f>
-        <v>8</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E122" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="29"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="118"/>
-      <c r="B123" s="119"/>
-      <c r="C123" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D123" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E123" s="57"/>
-      <c r="F123" s="57"/>
-      <c r="G123" s="57"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="26"/>
-      <c r="K123" s="26"/>
-      <c r="L123" s="32"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="118"/>
-      <c r="B124" s="119"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="E124" s="57"/>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="26"/>
-      <c r="L124" s="32"/>
-    </row>
-    <row r="125" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="118"/>
-      <c r="B125" s="119"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E125" s="57"/>
-      <c r="F125" s="57"/>
-      <c r="G125" s="57"/>
-      <c r="I125" s="25"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="26"/>
-      <c r="L125" s="32"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="110"/>
-      <c r="B126" s="111"/>
-      <c r="C126" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="30"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="110"/>
-      <c r="B127" s="111"/>
-      <c r="C127" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="30"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="110"/>
-      <c r="B128" s="111"/>
-      <c r="C128" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="I128" s="18"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="30"/>
-    </row>
-    <row r="129" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A129" s="112"/>
-      <c r="B129" s="113"/>
-      <c r="C129" s="138" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="138" t="s">
-        <v>35</v>
-      </c>
-      <c r="E129" s="39"/>
-      <c r="F129" s="39"/>
-      <c r="G129" s="39"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="31"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="31"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wiki/media/de/modul/m288/learningunits/lu00/m288_lb2_bewertungraster_2025he_me28.xlsx
+++ b/wiki/media/de/modul/m288/learningunits/lu00/m288_lb2_bewertungraster_2025he_me28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bzzch-my.sharepoint.com/personal/volkan_demir_bzz_ch/Documents/--- Latest Version ---/M288 - 2025HE/LU00_Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{1F0E6DCC-AB6E-4386-BC95-EEACC7AF54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59EB46E7-2C0C-3A49-9D87-6235063222B9}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{1F0E6DCC-AB6E-4386-BC95-EEACC7AF54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F188B5-6110-2D43-8530-008A49B4217F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorlage" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
   <si>
     <t>#</t>
   </si>
@@ -294,9 +294,6 @@
     <t>MP4</t>
   </si>
   <si>
-    <t>Erwartete Dateigrösse  50-100 MB.</t>
-  </si>
-  <si>
     <t>Datei ist wesentlich komprimierbar (&gt;20%)</t>
   </si>
   <si>
@@ -418,6 +415,18 @@
   </si>
   <si>
     <t>Die Story bzw. das Tutorial  unterstütz das Verständnis des Fachinhaltes, d.h. die Fachinhalte wurden mit der realen Welt (Beispiel) verknüpft.</t>
+  </si>
+  <si>
+    <t>Erwartete Dateigrösse  100-200 MB.</t>
+  </si>
+  <si>
+    <t>Arbeitsaufteilung</t>
+  </si>
+  <si>
+    <t>Zetliche Ungleichheit</t>
+  </si>
+  <si>
+    <t>Inhaltiche Ungliechheit</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1353,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1736,6 +1745,9 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2026,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2078,21 +2090,21 @@
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="53">
-        <f>SUM(E7:E121)</f>
+        <f>SUM(E7:E124)</f>
         <v>5.9999999999999991</v>
       </c>
       <c r="F2" s="53"/>
       <c r="G2" s="53"/>
       <c r="I2" s="14">
-        <f>SUM(I6:I121)</f>
+        <f>SUM(I6:I124)</f>
         <v>0</v>
       </c>
       <c r="J2" s="15">
-        <f>SUM(J6:J121)</f>
+        <f>SUM(J6:J124)</f>
         <v>0</v>
       </c>
       <c r="K2" s="15">
-        <f>SUM(K6:K121)</f>
+        <f>SUM(K6:K124)</f>
         <v>0</v>
       </c>
       <c r="L2" s="139"/>
@@ -2256,7 +2268,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2271,7 +2283,7 @@
       <c r="B11" s="119"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="59"/>
@@ -2288,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2310,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>20</v>
@@ -2330,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="127"/>
       <c r="F14" s="128"/>
@@ -2347,7 +2359,7 @@
       <c r="B15" s="124"/>
       <c r="C15" s="125"/>
       <c r="D15" s="126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="127"/>
       <c r="F15" s="128"/>
@@ -2364,7 +2376,7 @@
       <c r="B16" s="124"/>
       <c r="C16" s="125"/>
       <c r="D16" s="126" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="127"/>
       <c r="F16" s="128"/>
@@ -2381,7 +2393,7 @@
       <c r="B17" s="124"/>
       <c r="C17" s="125"/>
       <c r="D17" s="126" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="127"/>
       <c r="F17" s="128"/>
@@ -2406,7 +2418,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -2423,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -2445,10 +2457,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="85"/>
@@ -2618,10 +2630,10 @@
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -2636,7 +2648,7 @@
       <c r="B30" s="103"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -2658,10 +2670,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -2688,358 +2700,368 @@
       <c r="K32" s="71"/>
       <c r="L32" s="72"/>
     </row>
-    <row r="33" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="132" t="str">
-        <f>A58</f>
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="100">
+        <f>A31</f>
+        <v>1</v>
+      </c>
+      <c r="B33" s="101">
+        <f>B31+1</f>
+        <v>10</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+    </row>
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="123"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="127"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128">
+        <v>-2</v>
+      </c>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
+    </row>
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="123"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="126" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="127"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128">
+        <v>-2</v>
+      </c>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+    </row>
+    <row r="36" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="132" t="str">
+        <f>A61</f>
         <v>#</v>
       </c>
-      <c r="B34" s="135" t="str">
-        <f>B58</f>
+      <c r="B37" s="135" t="str">
+        <f>B61</f>
         <v>.#</v>
       </c>
-      <c r="C34" s="133" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="133" t="str">
-        <f>D58</f>
+      <c r="C37" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="133" t="str">
+        <f>D61</f>
         <v>Kommentar</v>
       </c>
-      <c r="E34" s="134" t="str">
+      <c r="E37" s="134" t="str">
         <f>E6</f>
         <v>Default</v>
       </c>
-      <c r="F34" s="134" t="str">
+      <c r="F37" s="134" t="str">
         <f>F6</f>
         <v>Bonus</v>
       </c>
-      <c r="G34" s="134" t="str">
+      <c r="G37" s="134" t="str">
         <f>G6</f>
         <v>Malus</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="29"/>
-    </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="118">
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="29"/>
+    </row>
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="118">
         <f>A31+1</f>
         <v>2</v>
       </c>
-      <c r="B35" s="119">
+      <c r="B38" s="119">
         <v>1</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C38" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="29"/>
+    </row>
+    <row r="39" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="118"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="62"/>
+    </row>
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="118"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="82" t="s">
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="62"/>
+    </row>
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="110"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="36"/>
+    </row>
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="110"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="36"/>
+    </row>
+    <row r="43" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="110"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="31"/>
+    </row>
+    <row r="44" spans="1:12" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="140"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144">
+        <v>-2</v>
+      </c>
+      <c r="I44" s="60"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="62"/>
+    </row>
+    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="129">
+        <f>A38</f>
+        <v>2</v>
+      </c>
+      <c r="B45" s="130">
+        <f>B38+1</f>
+        <v>2</v>
+      </c>
+      <c r="C45" s="137" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="10">
         <v>0.6</v>
       </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="29"/>
-    </row>
-    <row r="36" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="118"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="58" t="s">
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="118"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="62"/>
-    </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="118"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="62"/>
-    </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="110"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="5" t="s">
+      <c r="D46" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="118"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="32"/>
+    </row>
+    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="110"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="36"/>
-    </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="110"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="5" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="32"/>
+    </row>
+    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="110"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="36"/>
-    </row>
-    <row r="40" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="110"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="5" t="s">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="30"/>
+    </row>
+    <row r="50" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="112"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D50" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="31"/>
-    </row>
-    <row r="41" spans="1:12" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="140"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="142" t="s">
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="31"/>
+    </row>
+    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="129">
+        <f>A45</f>
         <v>2</v>
       </c>
-      <c r="D41" s="143" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144">
-        <v>-2</v>
-      </c>
-      <c r="I41" s="60"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="62"/>
-    </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="129">
-        <f>A35</f>
+      <c r="B51" s="130">
+        <f>B45</f>
         <v>2</v>
       </c>
-      <c r="B42" s="130">
-        <f>B35+1</f>
-        <v>2</v>
-      </c>
-      <c r="C42" s="137" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="C51" s="137" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="10">
         <v>0.6</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="29"/>
-    </row>
-    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="118"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="32"/>
-    </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="118"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="32"/>
-    </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="110"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="32"/>
-    </row>
-    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="110"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="30"/>
-    </row>
-    <row r="47" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="112"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="138" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="31"/>
-    </row>
-    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="129">
-        <f>A42</f>
-        <v>2</v>
-      </c>
-      <c r="B48" s="130">
-        <f>B42</f>
-        <v>2</v>
-      </c>
-      <c r="C48" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="29"/>
-    </row>
-    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="118"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="32"/>
-    </row>
-    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="118"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="32"/>
-    </row>
-    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="118"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="32"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="29"/>
     </row>
     <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="118"/>
       <c r="B52" s="119"/>
-      <c r="C52" s="58"/>
+      <c r="C52" s="58" t="s">
+        <v>53</v>
+      </c>
       <c r="D52" s="83" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E52" s="57"/>
       <c r="F52" s="57"/>
@@ -3050,510 +3072,504 @@
       <c r="L52" s="32"/>
     </row>
     <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="110"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="A53" s="118"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
       <c r="I53" s="25"/>
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
       <c r="L53" s="32"/>
     </row>
     <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="110"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="A54" s="118"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
       <c r="I54" s="25"/>
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
       <c r="L54" s="32"/>
     </row>
     <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="110"/>
-      <c r="B55" s="131"/>
-      <c r="C55" s="5" t="s">
+      <c r="A55" s="118"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="32"/>
+    </row>
+    <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="110"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="32"/>
+    </row>
+    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="110"/>
+      <c r="B57" s="131"/>
+      <c r="C57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="32"/>
+    </row>
+    <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="110"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="30"/>
-    </row>
-    <row r="56" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="112"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="38" t="s">
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="30"/>
+    </row>
+    <row r="59" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="112"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="138" t="s">
+      <c r="D59" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="31"/>
-    </row>
-    <row r="57" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="132" t="str">
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="31"/>
+    </row>
+    <row r="60" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="132" t="str">
         <f>A4</f>
         <v>#</v>
       </c>
-      <c r="B58" s="135" t="str">
+      <c r="B61" s="135" t="str">
         <f>B4</f>
         <v>.#</v>
       </c>
-      <c r="C58" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" s="133" t="str">
+      <c r="C61" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="133" t="str">
         <f>D4</f>
         <v>Kommentar</v>
       </c>
-      <c r="E58" s="134" t="str">
+      <c r="E61" s="134" t="str">
         <f>E6</f>
         <v>Default</v>
       </c>
-      <c r="F58" s="134" t="str">
+      <c r="F61" s="134" t="str">
         <f>F6</f>
         <v>Bonus</v>
       </c>
-      <c r="G58" s="134" t="str">
+      <c r="G61" s="134" t="str">
         <f>G6</f>
         <v>Malus</v>
       </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="29"/>
-    </row>
-    <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="118">
-        <f>A42+1</f>
+      <c r="I61" s="16"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="29"/>
+    </row>
+    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="118">
+        <f>A45+1</f>
         <v>3</v>
       </c>
-      <c r="B59" s="119">
+      <c r="B62" s="119">
         <v>1</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C62" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="82" t="s">
+      <c r="D62" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="57">
+      <c r="E62" s="57">
         <v>0.2</v>
       </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="29"/>
-    </row>
-    <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="118"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="62"/>
-    </row>
-    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="118"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="62"/>
-    </row>
-    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="118"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="E62" s="57"/>
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="62"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="29"/>
     </row>
     <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="131"/>
-      <c r="B63" s="131"/>
-      <c r="C63" s="5" t="s">
+      <c r="A63" s="118"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="62"/>
+    </row>
+    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="118"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="62"/>
+    </row>
+    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="118"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="62"/>
+    </row>
+    <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="131"/>
+      <c r="B66" s="131"/>
+      <c r="C66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D66" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="36"/>
+    </row>
+    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="131"/>
+      <c r="B67" s="131"/>
+      <c r="C67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="36"/>
-    </row>
-    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="131"/>
-      <c r="B64" s="131"/>
-      <c r="C64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="36"/>
+    </row>
+    <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="131"/>
+      <c r="B68" s="131"/>
+      <c r="C68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="36"/>
-    </row>
-    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="131"/>
-      <c r="B65" s="131"/>
-      <c r="C65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="36"/>
-    </row>
-    <row r="66" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="112"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="38" t="s">
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="36"/>
+    </row>
+    <row r="69" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="112"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D69" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="31"/>
-    </row>
-    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="118">
-        <f>A59</f>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="31"/>
+    </row>
+    <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="118">
+        <f>A62</f>
         <v>3</v>
       </c>
-      <c r="B67" s="119">
-        <f>B59+1</f>
+      <c r="B70" s="119">
+        <f>B62+1</f>
         <v>2</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C70" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="82" t="s">
+      <c r="D70" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="E67" s="57">
+      <c r="E70" s="57">
         <v>0.2</v>
       </c>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="29"/>
-    </row>
-    <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="118"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="32"/>
-    </row>
-    <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="118"/>
-      <c r="B69" s="119"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="32"/>
-    </row>
-    <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="118"/>
-      <c r="B70" s="119"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="E70" s="57"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="32"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="29"/>
     </row>
     <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="110"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
+      <c r="A71" s="118"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
       <c r="I71" s="25"/>
       <c r="J71" s="26"/>
       <c r="K71" s="26"/>
       <c r="L71" s="32"/>
     </row>
     <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="110"/>
-      <c r="B72" s="111"/>
-      <c r="C72" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="A72" s="118"/>
+      <c r="B72" s="119"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
       <c r="I72" s="25"/>
       <c r="J72" s="26"/>
       <c r="K72" s="26"/>
       <c r="L72" s="32"/>
     </row>
     <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="110"/>
-      <c r="B73" s="111"/>
-      <c r="C73" s="5" t="s">
+      <c r="A73" s="118"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="32"/>
+    </row>
+    <row r="74" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="110"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="32"/>
+    </row>
+    <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="110"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="32"/>
+    </row>
+    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="110"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="30"/>
-    </row>
-    <row r="74" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="112"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="38" t="s">
+      <c r="D76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="30"/>
+    </row>
+    <row r="77" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="112"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D77" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="31"/>
-    </row>
-    <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="118">
-        <f>A67</f>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="31"/>
+    </row>
+    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="118">
+        <f>A70</f>
         <v>3</v>
       </c>
-      <c r="B75" s="119">
-        <f>B67+1</f>
+      <c r="B78" s="119">
+        <f>B70+1</f>
         <v>3</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C78" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="82" t="s">
+      <c r="D78" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="57">
+      <c r="E78" s="57">
         <v>0.4</v>
       </c>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="29"/>
-    </row>
-    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="118"/>
-      <c r="B76" s="119"/>
-      <c r="C76" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="32"/>
-    </row>
-    <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="118"/>
-      <c r="B77" s="119"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="32"/>
-    </row>
-    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="118"/>
-      <c r="B78" s="119"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" s="57"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="32"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="29"/>
     </row>
     <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="110"/>
-      <c r="B79" s="111"/>
-      <c r="C79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
+      <c r="A79" s="118"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
       <c r="I79" s="25"/>
       <c r="J79" s="26"/>
       <c r="K79" s="26"/>
       <c r="L79" s="32"/>
     </row>
     <row r="80" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="110"/>
-      <c r="B80" s="111"/>
-      <c r="C80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="30"/>
+      <c r="A80" s="118"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="32"/>
     </row>
     <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="110"/>
-      <c r="B81" s="111"/>
-      <c r="C81" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="A81" s="118"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
       <c r="I81" s="25"/>
       <c r="J81" s="26"/>
       <c r="K81" s="26"/>
@@ -3563,135 +3579,141 @@
       <c r="A82" s="110"/>
       <c r="B82" s="111"/>
       <c r="C82" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="E82" s="11"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="86"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
       <c r="I82" s="25"/>
       <c r="J82" s="26"/>
       <c r="K82" s="26"/>
       <c r="L82" s="32"/>
     </row>
-    <row r="83" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="114"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="84"/>
-      <c r="F83" s="87">
-        <v>0.2</v>
-      </c>
-      <c r="G83" s="87"/>
+    <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="110"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
       <c r="I83" s="18"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="30"/>
     </row>
-    <row r="84" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="116"/>
-      <c r="B84" s="117"/>
-      <c r="C84" s="79" t="s">
+    <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="110"/>
+      <c r="B84" s="111"/>
+      <c r="C84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="32"/>
+    </row>
+    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="110"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="86"/>
+      <c r="G85" s="86"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="32"/>
+    </row>
+    <row r="86" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="114"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E84" s="80"/>
-      <c r="F84" s="81">
+      <c r="D86" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="84"/>
+      <c r="F86" s="87">
         <v>0.2</v>
       </c>
-      <c r="G84" s="81"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="31"/>
-    </row>
-    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="118">
-        <f>A75</f>
+      <c r="G86" s="87"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="30"/>
+    </row>
+    <row r="87" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="116"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="119">
-        <f>B75+1</f>
+      <c r="D87" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="80"/>
+      <c r="F87" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="G87" s="81"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="31"/>
+    </row>
+    <row r="88" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="118">
+        <f>A78</f>
+        <v>3</v>
+      </c>
+      <c r="B88" s="119">
+        <f>B78+1</f>
         <v>4</v>
       </c>
-      <c r="C85" s="58" t="s">
+      <c r="C88" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="52" t="s">
+      <c r="D88" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E88" s="10">
         <v>0.6</v>
       </c>
-      <c r="F85" s="85"/>
-      <c r="G85" s="85"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="29"/>
-    </row>
-    <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="118"/>
-      <c r="B86" s="119"/>
-      <c r="C86" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="E86" s="57"/>
-      <c r="F86" s="136"/>
-      <c r="G86" s="136"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="32"/>
-    </row>
-    <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="118"/>
-      <c r="B87" s="119"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="E87" s="57"/>
-      <c r="F87" s="136"/>
-      <c r="G87" s="136"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="32"/>
-    </row>
-    <row r="88" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="118"/>
-      <c r="B88" s="119"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="E88" s="57"/>
-      <c r="F88" s="136"/>
-      <c r="G88" s="136"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="32"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="29"/>
     </row>
     <row r="89" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="118"/>
       <c r="B89" s="119"/>
-      <c r="C89" s="58"/>
+      <c r="C89" s="58" t="s">
+        <v>53</v>
+      </c>
       <c r="D89" s="82" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E89" s="57"/>
       <c r="F89" s="136"/>
@@ -3702,13 +3724,11 @@
       <c r="L89" s="32"/>
     </row>
     <row r="90" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="110"/>
-      <c r="B90" s="111"/>
-      <c r="C90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>36</v>
+      <c r="A90" s="118"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="82" t="s">
+        <v>118</v>
       </c>
       <c r="E90" s="57"/>
       <c r="F90" s="136"/>
@@ -3719,174 +3739,174 @@
       <c r="L90" s="32"/>
     </row>
     <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="110"/>
-      <c r="B91" s="111"/>
-      <c r="C91" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="86"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="30"/>
+      <c r="A91" s="118"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="57"/>
+      <c r="F91" s="136"/>
+      <c r="G91" s="136"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="32"/>
     </row>
     <row r="92" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="110"/>
-      <c r="B92" s="111"/>
-      <c r="C92" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="86"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="30"/>
+      <c r="A92" s="118"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" s="57"/>
+      <c r="F92" s="136"/>
+      <c r="G92" s="136"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="32"/>
     </row>
     <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="110"/>
       <c r="B93" s="111"/>
       <c r="C93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="57"/>
+      <c r="F93" s="136"/>
+      <c r="G93" s="136"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="32"/>
+    </row>
+    <row r="94" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="110"/>
+      <c r="B94" s="111"/>
+      <c r="C94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="86"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="30"/>
+    </row>
+    <row r="95" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="110"/>
+      <c r="B95" s="111"/>
+      <c r="C95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="11"/>
+      <c r="F95" s="86"/>
+      <c r="G95" s="86"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="30"/>
+    </row>
+    <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="110"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="86"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="30"/>
-    </row>
-    <row r="94" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="114"/>
-      <c r="B94" s="115"/>
-      <c r="C94" s="78" t="s">
+      <c r="D96" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="11"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="86"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="30"/>
+    </row>
+    <row r="97" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="114"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="41" t="s">
+      <c r="D97" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E94" s="84"/>
-      <c r="F94" s="87">
+      <c r="E97" s="84"/>
+      <c r="F97" s="87">
         <v>0.3</v>
       </c>
-      <c r="G94" s="87"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="36"/>
-    </row>
-    <row r="95" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="116"/>
-      <c r="B95" s="117"/>
-      <c r="C95" s="79" t="s">
+      <c r="G97" s="87"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="36"/>
+    </row>
+    <row r="98" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="116"/>
+      <c r="B98" s="117"/>
+      <c r="C98" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="44" t="s">
+      <c r="D98" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E95" s="80"/>
-      <c r="F95" s="81">
+      <c r="E98" s="80"/>
+      <c r="F98" s="81">
         <v>0.3</v>
       </c>
-      <c r="G95" s="81"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="31"/>
-    </row>
-    <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="118">
-        <f>A85</f>
+      <c r="G98" s="81"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="31"/>
+    </row>
+    <row r="99" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="118">
+        <f>A88</f>
         <v>3</v>
       </c>
-      <c r="B96" s="119">
-        <f>B85+1</f>
+      <c r="B99" s="119">
+        <f>B88+1</f>
         <v>5</v>
       </c>
-      <c r="C96" s="58" t="s">
+      <c r="C99" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D96" s="82" t="s">
+      <c r="D99" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="E96" s="57">
+      <c r="E99" s="57">
         <v>0.6</v>
       </c>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="29"/>
-    </row>
-    <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="118"/>
-      <c r="B97" s="119"/>
-      <c r="C97" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D97" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="E97" s="57"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="57"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="32"/>
-    </row>
-    <row r="98" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="118"/>
-      <c r="B98" s="119"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="57"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="26"/>
-      <c r="L98" s="32"/>
-    </row>
-    <row r="99" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="118"/>
-      <c r="B99" s="119"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="E99" s="57"/>
       <c r="F99" s="57"/>
       <c r="G99" s="57"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="32"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="29"/>
     </row>
     <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="110"/>
-      <c r="B100" s="111"/>
-      <c r="C100" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>36</v>
+      <c r="A100" s="118"/>
+      <c r="B100" s="119"/>
+      <c r="C100" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" s="82" t="s">
+        <v>63</v>
       </c>
       <c r="E100" s="57"/>
       <c r="F100" s="57"/>
@@ -3897,377 +3917,424 @@
       <c r="L100" s="32"/>
     </row>
     <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="110"/>
-      <c r="B101" s="111"/>
-      <c r="C101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="30"/>
+      <c r="A101" s="118"/>
+      <c r="B101" s="119"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="32"/>
     </row>
     <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="110"/>
-      <c r="B102" s="111"/>
-      <c r="C102" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="30"/>
+      <c r="A102" s="118"/>
+      <c r="B102" s="119"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="32"/>
     </row>
     <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="110"/>
       <c r="B103" s="111"/>
       <c r="C103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="32"/>
+    </row>
+    <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="110"/>
+      <c r="B104" s="111"/>
+      <c r="C104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="30"/>
+    </row>
+    <row r="105" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="110"/>
+      <c r="B105" s="111"/>
+      <c r="C105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="30"/>
+    </row>
+    <row r="106" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="110"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E103" s="11"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="86"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="30"/>
-    </row>
-    <row r="104" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="114"/>
-      <c r="B104" s="115"/>
-      <c r="C104" s="78" t="s">
+      <c r="D106" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="30"/>
+    </row>
+    <row r="107" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="114"/>
+      <c r="B107" s="115"/>
+      <c r="C107" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="41" t="s">
+      <c r="D107" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E104" s="84"/>
-      <c r="F104" s="87">
+      <c r="E107" s="84"/>
+      <c r="F107" s="87">
         <v>0.3</v>
       </c>
-      <c r="G104" s="87"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="22"/>
-      <c r="K104" s="22"/>
-      <c r="L104" s="36"/>
-    </row>
-    <row r="105" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="116"/>
-      <c r="B105" s="117"/>
-      <c r="C105" s="79" t="s">
+      <c r="G107" s="87"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="36"/>
+    </row>
+    <row r="108" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="116"/>
+      <c r="B108" s="117"/>
+      <c r="C108" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="44" t="s">
+      <c r="D108" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E105" s="80"/>
-      <c r="F105" s="81">
+      <c r="E108" s="80"/>
+      <c r="F108" s="81">
         <v>0.3</v>
       </c>
-      <c r="G105" s="81"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
-      <c r="L105" s="31"/>
-    </row>
-    <row r="106" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="129">
-        <f>A96</f>
+      <c r="G108" s="81"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="31"/>
+    </row>
+    <row r="109" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="129">
+        <f>A99</f>
         <v>3</v>
       </c>
-      <c r="B106" s="130">
-        <f>B96+1</f>
+      <c r="B109" s="130">
+        <f>B99+1</f>
         <v>6</v>
       </c>
-      <c r="C106" s="137" t="s">
+      <c r="C109" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="D106" s="52" t="s">
+      <c r="D109" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E109" s="10">
         <v>0.6</v>
       </c>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="29"/>
-    </row>
-    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="118"/>
-      <c r="B107" s="119"/>
-      <c r="C107" s="58" t="s">
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="29"/>
+    </row>
+    <row r="110" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="118"/>
+      <c r="B110" s="119"/>
+      <c r="C110" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D107" s="82" t="s">
+      <c r="D110" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="32"/>
-    </row>
-    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="118"/>
-      <c r="B108" s="119"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="82" t="s">
+      <c r="E110" s="57"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="57"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="32"/>
+    </row>
+    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="118"/>
+      <c r="B111" s="119"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="32"/>
-    </row>
-    <row r="109" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="118"/>
-      <c r="B109" s="119"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="82" t="s">
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="32"/>
+    </row>
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="118"/>
+      <c r="B112" s="119"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="57"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="57"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
-      <c r="L109" s="32"/>
-    </row>
-    <row r="110" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="110"/>
-      <c r="B110" s="111"/>
-      <c r="C110" s="5" t="s">
+      <c r="E112" s="57"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="57"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="32"/>
+    </row>
+    <row r="113" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="110"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="30"/>
-    </row>
-    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="110"/>
-      <c r="B111" s="111"/>
-      <c r="C111" s="5" t="s">
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="30"/>
+    </row>
+    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="110"/>
+      <c r="B114" s="111"/>
+      <c r="C114" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="30"/>
-    </row>
-    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="110"/>
-      <c r="B112" s="111"/>
-      <c r="C112" s="5" t="s">
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="30"/>
+    </row>
+    <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="110"/>
+      <c r="B115" s="111"/>
+      <c r="C115" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="30"/>
-    </row>
-    <row r="113" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="112"/>
-      <c r="B113" s="113"/>
-      <c r="C113" s="138" t="s">
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="30"/>
+    </row>
+    <row r="116" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="112"/>
+      <c r="B116" s="113"/>
+      <c r="C116" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="31"/>
-    </row>
-    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="100" t="e">
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="31"/>
+    </row>
+    <row r="117" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="100" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B114" s="101" t="e">
+      <c r="B117" s="101" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E117" s="10">
         <v>0.6</v>
       </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="29"/>
-    </row>
-    <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="118"/>
-      <c r="B115" s="119"/>
-      <c r="C115" s="58" t="s">
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="29"/>
+    </row>
+    <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="118"/>
+      <c r="B118" s="119"/>
+      <c r="C118" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D115" s="56" t="s">
+      <c r="D118" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E115" s="57"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="26"/>
-      <c r="L115" s="32"/>
-    </row>
-    <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="118"/>
-      <c r="B116" s="119"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="56" t="s">
+      <c r="E118" s="57"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="57"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="32"/>
+    </row>
+    <row r="119" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="118"/>
+      <c r="B119" s="119"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E116" s="57"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="26"/>
-      <c r="L116" s="32"/>
-    </row>
-    <row r="117" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A117" s="118"/>
-      <c r="B117" s="119"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="56" t="s">
+      <c r="E119" s="57"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="57"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="32"/>
+    </row>
+    <row r="120" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="118"/>
+      <c r="B120" s="119"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="E117" s="57"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="26"/>
-      <c r="L117" s="32"/>
-    </row>
-    <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="110"/>
-      <c r="B118" s="111"/>
-      <c r="C118" s="5" t="s">
+      <c r="E120" s="57"/>
+      <c r="F120" s="57"/>
+      <c r="G120" s="57"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="32"/>
+    </row>
+    <row r="121" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="110"/>
+      <c r="B121" s="111"/>
+      <c r="C121" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="30"/>
-    </row>
-    <row r="119" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="110"/>
-      <c r="B119" s="111"/>
-      <c r="C119" s="5" t="s">
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="30"/>
+    </row>
+    <row r="122" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="110"/>
+      <c r="B122" s="111"/>
+      <c r="C122" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="30"/>
-    </row>
-    <row r="120" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="110"/>
-      <c r="B120" s="111"/>
-      <c r="C120" s="5" t="s">
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="30"/>
+    </row>
+    <row r="123" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="110"/>
+      <c r="B123" s="111"/>
+      <c r="C123" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="30"/>
-    </row>
-    <row r="121" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="112"/>
-      <c r="B121" s="113"/>
-      <c r="C121" s="138" t="s">
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="30"/>
+    </row>
+    <row r="124" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="112"/>
+      <c r="B124" s="113"/>
+      <c r="C124" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="138" t="s">
+      <c r="D124" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-      <c r="K121" s="20"/>
-      <c r="L121" s="31"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="31"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
